--- a/replication/temp/figureA2_police_report_only.xlsx
+++ b/replication/temp/figureA2_police_report_only.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>hour</t>
   </si>
@@ -34,7 +34,58 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(nan)</t>
+    <t>(0.75)</t>
+  </si>
+  <si>
+    <t>(0.83)</t>
+  </si>
+  <si>
+    <t>(0.66)</t>
+  </si>
+  <si>
+    <t>(0.21)</t>
+  </si>
+  <si>
+    <t>(1.29)</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>(0.6)</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>(0.79)</t>
+  </si>
+  <si>
+    <t>(0.42)</t>
+  </si>
+  <si>
+    <t>(1.39)</t>
+  </si>
+  <si>
+    <t>(0.63)</t>
+  </si>
+  <si>
+    <t>(2.03)</t>
+  </si>
+  <si>
+    <t>(1.07)</t>
+  </si>
+  <si>
+    <t>(1.21)</t>
+  </si>
+  <si>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>(4.15)</t>
+  </si>
+  <si>
+    <t>(3.38)</t>
   </si>
 </sst>
 </file>
@@ -499,28 +550,28 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -560,31 +611,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">

--- a/replication/temp/figureA2_police_report_only.xlsx
+++ b/replication/temp/figureA2_police_report_only.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>hour</t>
   </si>
@@ -34,58 +34,55 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(0.75)</t>
-  </si>
-  <si>
-    <t>(0.83)</t>
-  </si>
-  <si>
-    <t>(0.66)</t>
-  </si>
-  <si>
-    <t>(0.21)</t>
-  </si>
-  <si>
-    <t>(1.29)</t>
-  </si>
-  <si>
-    <t>(0.04)</t>
-  </si>
-  <si>
-    <t>(0.6)</t>
-  </si>
-  <si>
-    <t>(0.19)</t>
-  </si>
-  <si>
-    <t>(0.79)</t>
-  </si>
-  <si>
-    <t>(0.42)</t>
-  </si>
-  <si>
-    <t>(1.39)</t>
-  </si>
-  <si>
-    <t>(0.63)</t>
-  </si>
-  <si>
-    <t>(2.03)</t>
-  </si>
-  <si>
-    <t>(1.07)</t>
-  </si>
-  <si>
-    <t>(1.21)</t>
-  </si>
-  <si>
-    <t>(0.24)</t>
-  </si>
-  <si>
-    <t>(4.15)</t>
-  </si>
-  <si>
-    <t>(3.38)</t>
+    <t>(2.22)</t>
+  </si>
+  <si>
+    <t>(1.48)</t>
+  </si>
+  <si>
+    <t>(1.37)</t>
+  </si>
+  <si>
+    <t>(0.98)</t>
+  </si>
+  <si>
+    <t>(5.16)</t>
+  </si>
+  <si>
+    <t>(2.34)</t>
+  </si>
+  <si>
+    <t>(0.73)</t>
+  </si>
+  <si>
+    <t>(0.09)</t>
+  </si>
+  <si>
+    <t>(3.41)</t>
+  </si>
+  <si>
+    <t>(1.64)</t>
+  </si>
+  <si>
+    <t>(0.43)</t>
+  </si>
+  <si>
+    <t>(0.18)</t>
+  </si>
+  <si>
+    <t>(0.15)</t>
+  </si>
+  <si>
+    <t>(0.28)</t>
+  </si>
+  <si>
+    <t>(0.81)</t>
+  </si>
+  <si>
+    <t>(0.77)</t>
+  </si>
+  <si>
+    <t>(1.12)</t>
   </si>
 </sst>
 </file>
@@ -571,7 +568,7 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -635,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
